--- a/UserProfile/excel/venkatesh.xlsx
+++ b/UserProfile/excel/venkatesh.xlsx
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,12 +1725,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45500</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1743,15 +1741,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>115.80</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>397.10</t>
-        </is>
+      <c r="G25" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>397.1</v>
       </c>
       <c r="I25" t="n">
         <v>281.3</v>
@@ -1777,12 +1771,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="C26" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -1795,15 +1787,11 @@
           <t>12:39</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>113.45</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
+      <c r="G26" t="n">
+        <v>113.45</v>
+      </c>
+      <c r="H26" t="n">
+        <v>150</v>
       </c>
       <c r="I26" t="n">
         <v>36.55</v>
@@ -1816,6 +1804,110 @@
       </c>
       <c r="L26" t="n">
         <v>44.70458</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20350</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>109.55</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>-24.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-961.9999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>39.66193560000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>45800</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>356.50</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>314.00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-637.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>41.2695078</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,6 +2257,37 @@
         <v>581.7200798899999</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20125.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20175.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.11999999999971</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4411.999999999971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>580.573851836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/venkatesh.xlsx
+++ b/UserProfile/excel/venkatesh.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,7 +2868,7 @@
           <t>3P196</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -2881,15 +2881,11 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>73.50</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>61.65</t>
-        </is>
+      <c r="G53" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>61.65</v>
       </c>
       <c r="I53" t="n">
         <v>-11.85</v>
@@ -2920,7 +2916,7 @@
           <t>3P195</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -2933,15 +2929,11 @@
           <t>13:44</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>17.95</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="G54" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>-15.95</v>
@@ -2954,6 +2946,110 @@
       </c>
       <c r="L54" t="n">
         <v>35.524618</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19750</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>63.25</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>-14.25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>120</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1710</v>
+      </c>
+      <c r="L55" t="n">
+        <v>42.72753839999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>108.75</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>111.07</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2.319999999999993</v>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+      <c r="K56" t="n">
+        <v>231.9999999999993</v>
+      </c>
+      <c r="L56" t="n">
+        <v>49.53132126000001</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3644,6 +3740,37 @@
         <v>572.35771626</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19569.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19617.12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30.82000000000044</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3082.000000000044</v>
+      </c>
+      <c r="I17" t="n">
+        <v>575.771835956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/venkatesh.xlsx
+++ b/UserProfile/excel/venkatesh.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -63,12 +68,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -96,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,22 +522,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="S118" sqref="S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="8.88671875" customWidth="1" style="7" min="1" max="5"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
     <col width="8.88671875" customWidth="1" style="7" min="7" max="12"/>
     <col width="9.21875" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="9" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="9.21875" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="8.88671875" customWidth="1" style="7" min="16" max="21"/>
-    <col width="8.88671875" customWidth="1" style="7" min="22" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="7" min="16" max="23"/>
+    <col width="8.88671875" customWidth="1" style="7" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7308,6 +7331,228 @@
       </c>
       <c r="O121" s="9" t="n">
         <v>231.17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="inlineStr">
+        <is>
+          <t>MP129</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="H122" s="5" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="I122" s="9" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="J122" s="9" t="n">
+        <v>121.15</v>
+      </c>
+      <c r="K122" s="9" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="L122" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M122" s="9" t="n">
+        <v>2785</v>
+      </c>
+      <c r="N122" s="9" t="n">
+        <v>53.9787207</v>
+      </c>
+      <c r="O122" s="9" t="n">
+        <v>2731.021279</v>
+      </c>
+      <c r="P122" s="6" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="inlineStr">
+        <is>
+          <t>MP130</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G123" s="5" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="H123" s="5" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="I123" s="9" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J123" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="K123" s="9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L123" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="M123" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="N123" s="9" t="n">
+        <v>40.1259424</v>
+      </c>
+      <c r="O123" s="9" t="n">
+        <v>71.8740576</v>
+      </c>
+      <c r="P123" s="6" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C124" s="6" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G124" s="8" t="n">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="H124" s="8" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I124" s="10" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="J124" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K124" s="10" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="L124" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M124" s="10" t="n">
+        <v>-1012.5</v>
+      </c>
+      <c r="N124" s="10" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="O124" s="9" t="n">
+        <v>-1050.267742</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="D125" s="11" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G125" s="8" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="H125" s="8" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I125" s="10" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="J125" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="K125" s="10" t="n">
+        <v>-49.65</v>
+      </c>
+      <c r="L125" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="M125" s="10" t="n">
+        <v>-1489.5</v>
+      </c>
+      <c r="N125" s="10" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="O125" s="9" t="n">
+        <v>-1526.918812</v>
       </c>
     </row>
   </sheetData>
@@ -7321,7 +7566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7330,37 +7575,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -11594,6 +11839,146 @@
       <c r="G122" t="inlineStr">
         <is>
           <t>₹ 84,377.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MP121</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>₹ 2,731.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>₹ 87,108.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MP122</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>₹ 71.87</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>₹ 87,180.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>-₹ 1,050.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>₹ 86,130.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>-₹ 1,526.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>₹ 84,603.30</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/venkatesh.xlsx
+++ b/UserProfile/excel/venkatesh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -49,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -62,6 +67,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -102,10 +122,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,13 +496,13 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="4" max="5"/>
+    <col width="19.5546875" bestFit="1" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,10 +593,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.44861111111</v>
       </c>
       <c r="F2" s="4" t="n">
@@ -623,10 +643,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="3" t="n">
         <v>45229.47986111111</v>
       </c>
       <c r="F3" s="4" t="n">
@@ -673,10 +693,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="3" t="n">
         <v>45230.5125</v>
       </c>
       <c r="F4" s="4" t="n">
@@ -723,10 +743,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="3" t="n">
         <v>45230.54791666667</v>
       </c>
       <c r="F5" s="4" t="n">
@@ -773,10 +793,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="3" t="n">
         <v>45231.62569444445</v>
       </c>
       <c r="F6" s="4" t="n">
@@ -823,10 +843,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="3" t="n">
         <v>45231.51875</v>
       </c>
       <c r="F7" s="4" t="n">
@@ -873,10 +893,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="3" t="n">
         <v>45232.61944444444</v>
       </c>
       <c r="F8" s="4" t="n">
@@ -923,10 +943,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="3" t="n">
         <v>45232.59444444445</v>
       </c>
       <c r="F9" s="4" t="n">
@@ -973,10 +993,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="3" t="n">
         <v>45233.49444444444</v>
       </c>
       <c r="F10" s="4" t="n">
@@ -1023,10 +1043,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="3" t="n">
         <v>45233.47083333333</v>
       </c>
       <c r="F11" s="4" t="n">
@@ -1074,7 +1094,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1164,10 +1184,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
       <c r="F2" s="4" t="n">
@@ -1214,10 +1234,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="3" t="n">
         <v>45231.46666666667</v>
       </c>
       <c r="F3" s="4" t="n">
@@ -1716,7 +1736,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>₹ 60,462.37</t>
+          <t>₹ 68,953.08</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1771,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>₹ 59,225.35</t>
+          <t>₹ 67,716.06</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/venkatesh.xlsx
+++ b/UserProfile/excel/venkatesh.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,16 +12,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,20 +29,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -54,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,43 +50,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -107,13 +59,16 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -121,17 +76,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -494,16 +451,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="19.5546875" bestFit="1" customWidth="1" min="4" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -531,27 +485,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -561,520 +515,774 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY31OCT23P19150</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>73.3</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>72.55</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-0.75</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>-60</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>42.63</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>-102.63</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>93.3</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>76.2</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-17.1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>-1710</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>44.9</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>-1754.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>MP159</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P43000</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>188.25</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>-2.25</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>-33.75</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>38.88</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>-72.63</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>MP160</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.54791666667</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>87.2</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>67.45</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-19.75</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>-987.5</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <v>39.6</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>-1027.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>MP161</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>109.05</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-25.45</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>-2036</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <v>43.73</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>-2079.73</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>MP162</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>50.9</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>-48.9</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>-733.5</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>-768.9400000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>MP163</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>24.55</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>-22.55</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>-1127.5</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="5" t="n">
         <v>35.52</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>-1163.02</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>MP164</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23P43000</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>285.65</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>246</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>-39.65</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>-594.75</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>-634.75</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>MP165</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>NIFTY09NOV23C19250</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="6" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="6" t="n">
         <v>45233.49444444444</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>97.25</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>-13.75</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>-1375</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <v>47.52</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>-1422.52</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>MP166</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23C43400</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="6" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="6" t="n">
         <v>45233.47083333333</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>243.6</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>203.8</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>-39.8</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>-1194</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <v>43.02</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>-1237.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1122,27 +1330,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -1152,119 +1360,119 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Error1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>64.05</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>59.5</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-4.55</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>-68.25</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>-103.69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Error2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>111.4</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>106.85</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-4.55</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>-364</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>43.72</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>-407.72</v>
       </c>
     </row>
@@ -1279,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,37 +1496,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1772,6 +1980,181 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>₹ 67,716.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹67,680.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹67,645.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹67,609.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹67,574.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹67,539.06</t>
         </is>
       </c>
     </row>
